--- a/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
+++ b/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10412"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ben/Desktop/BRPSPTY/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8E4B3D-1592-8049-98A5-58B113D7A1D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BRPSPTY" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>BRPSPTY BAU Renewable Portfolio Std Percentage This Year</t>
   </si>
@@ -34,9 +40,6 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>The purpose of this variable is to specify the renewable portfolio standard</t>
-  </si>
-  <si>
     <t>requirement that must be met in the BAU case (which the user may increase</t>
   </si>
   <si>
@@ -46,16 +49,22 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>No RPS standard at federal level in Canada. Therefore zero.</t>
-  </si>
-  <si>
     <t>Not relevant</t>
+  </si>
+  <si>
+    <t>The purpose of this variable is to specify the renewable portfolio standard (or Clean Energy Standard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although no RPS or CES exist at the federal level in Canada, this variable allows for ensuring a proper functioning </t>
+  </si>
+  <si>
+    <t>of the Clean Energy Standard policy lever by providing a floor for clean power generation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -420,62 +429,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="122.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
     </row>
   </sheetData>
@@ -485,20 +498,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -611,117 +626,119 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <f>C2</f>
+        <v>0.67198948197470276</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <f>D2</f>
+        <v>0.67198948197470276</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>0.67198948197470276</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <v>0.66845884810059797</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>0.67441878326587357</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
+        <v>0.68886385408284478</v>
       </c>
       <c r="H2" s="4">
-        <v>0</v>
+        <v>0.69888033876075473</v>
       </c>
       <c r="I2" s="4">
-        <v>0</v>
+        <v>0.72349189355930354</v>
       </c>
       <c r="J2" s="4">
-        <v>0</v>
+        <v>0.72203511027920575</v>
       </c>
       <c r="K2" s="4">
-        <v>0</v>
+        <v>0.72279252211650813</v>
       </c>
       <c r="L2" s="4">
-        <v>0</v>
+        <v>0.71404414110121173</v>
       </c>
       <c r="M2" s="4">
-        <v>0</v>
+        <v>0.73473731930122299</v>
       </c>
       <c r="N2" s="4">
-        <v>0</v>
+        <v>0.73854438877900175</v>
       </c>
       <c r="O2" s="4">
-        <v>0</v>
+        <v>0.7408890617270536</v>
       </c>
       <c r="P2" s="4">
-        <v>0</v>
+        <v>0.75461461897621884</v>
       </c>
       <c r="Q2" s="4">
-        <v>0</v>
+        <v>0.76312591358738147</v>
       </c>
       <c r="R2" s="4">
-        <v>0</v>
+        <v>0.76468192738827478</v>
       </c>
       <c r="S2" s="4">
-        <v>0</v>
+        <v>0.76633798075574378</v>
       </c>
       <c r="T2" s="4">
-        <v>0</v>
+        <v>0.76742647828362109</v>
       </c>
       <c r="U2" s="4">
-        <v>0</v>
+        <v>0.76873443136470809</v>
       </c>
       <c r="V2" s="4">
-        <v>0</v>
+        <v>0.76706946727348313</v>
       </c>
       <c r="W2" s="4">
-        <v>0</v>
+        <v>0.77188634889531715</v>
       </c>
       <c r="X2" s="4">
-        <v>0</v>
+        <v>0.77335964895576315</v>
       </c>
       <c r="Y2" s="4">
-        <v>0</v>
+        <v>0.77700999247994196</v>
       </c>
       <c r="Z2" s="4">
-        <v>0</v>
+        <v>0.7781701362601543</v>
       </c>
       <c r="AA2" s="4">
-        <v>0</v>
+        <v>0.78049651222026561</v>
       </c>
       <c r="AB2" s="4">
-        <v>0</v>
+        <v>0.78279401102811574</v>
       </c>
       <c r="AC2" s="4">
-        <v>0</v>
+        <v>0.78378228167031017</v>
       </c>
       <c r="AD2" s="4">
-        <v>0</v>
+        <v>0.78502600858131777</v>
       </c>
       <c r="AE2" s="4">
-        <v>0</v>
+        <v>0.78625087122621484</v>
       </c>
       <c r="AF2" s="4">
-        <v>0</v>
+        <v>0.78741426522362756</v>
       </c>
       <c r="AG2" s="4">
-        <v>0</v>
+        <v>0.78855936768621082</v>
       </c>
       <c r="AH2" s="4">
-        <v>0</v>
+        <v>0.78930240730070722</v>
       </c>
       <c r="AI2" s="4">
-        <v>0</v>
+        <v>0.79073623814853411</v>
       </c>
       <c r="AJ2" s="4">
-        <v>0</v>
+        <v>0.79169512046687718</v>
       </c>
       <c r="AK2" s="4">
-        <v>0</v>
+        <v>0.7926622739344561</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
+++ b/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
@@ -23308,8 +23308,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -23335,6 +23335,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -23435,6 +23436,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -23594,21 +23600,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F21D11-2E9B-4B20-A9FE-E94313EEF129}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{881E04EE-B851-4D36-A8D4-2AB30FCCABF8}"/>
 </file>